--- a/data/trans_orig/P1403-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF6E512-D089-4516-878F-A872C525DE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4106278C-A98F-4CF8-BBC7-A49B60F2E056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E76F3998-7C57-4D8F-BF1F-1416DE1D4658}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD9669D6-11A4-4A91-8113-B6B8FAA74897}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="679">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>13,36%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>86,64%</t>
   </si>
   <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1861 +167,1915 @@
     <t>9,54%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>85,44%</t>
   </si>
   <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>80,38%</t>
   </si>
   <si>
     <t>80,88%</t>
   </si>
   <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>21,6%</t>
   </si>
   <si>
-    <t>26,69%</t>
+    <t>26,82%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>75,76%</t>
   </si>
   <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>72,9%</t>
   </si>
 </sst>
 </file>
@@ -2433,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B9D9B0-2F50-4E97-81C9-A9228DCD250E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B9967D-82A7-4537-8977-A6E5C2A7001C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3641,10 +3695,10 @@
         <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -3653,13 +3707,13 @@
         <v>52721</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -3668,13 +3722,13 @@
         <v>93744</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3743,13 @@
         <v>229788</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
@@ -3704,13 +3758,13 @@
         <v>225423</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>445</v>
@@ -3719,13 +3773,13 @@
         <v>455211</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,7 +3835,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3799,7 +3853,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3814,7 +3868,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3829,7 +3883,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3898,13 @@
         <v>87975</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>109</v>
@@ -3859,13 +3913,13 @@
         <v>110888</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>199</v>
@@ -3874,13 +3928,13 @@
         <v>198863</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3949,13 @@
         <v>527052</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H30" s="7">
         <v>512</v>
@@ -3910,13 +3964,13 @@
         <v>527331</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="M30" s="7">
         <v>1020</v>
@@ -3925,13 +3979,13 @@
         <v>1054383</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,7 +4041,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4035,7 +4089,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4104,13 @@
         <v>100774</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>103</v>
@@ -4065,13 +4119,13 @@
         <v>111696</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>207</v>
@@ -4080,13 +4134,13 @@
         <v>212471</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4155,13 @@
         <v>643021</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H34" s="7">
         <v>642</v>
@@ -4116,13 +4170,13 @@
         <v>671815</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>1274</v>
@@ -4131,13 +4185,13 @@
         <v>1314835</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,7 +4265,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -4226,7 +4280,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -4241,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4310,13 @@
         <v>427220</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H37" s="7">
         <v>556</v>
@@ -4271,13 +4325,13 @@
         <v>572800</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M37" s="7">
         <v>993</v>
@@ -4286,13 +4340,13 @@
         <v>1000020</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4361,13 @@
         <v>2849324</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H38" s="7">
         <v>2741</v>
@@ -4322,28 +4376,28 @@
         <v>2806398</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M38" s="7">
         <v>5518</v>
       </c>
       <c r="N38" s="7">
-        <v>5655720</v>
+        <v>5655721</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,7 +4439,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -4399,7 +4453,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4423,7 +4477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCFB8AF-EB43-4982-8920-B6CE698650CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E715833D-E4FD-4ABF-92CD-C9DB5DC08DD2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4440,7 +4494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4545,39 +4599,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,39 +4644,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,39 +4689,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,39 +4734,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4780,13 +4834,13 @@
         <v>81021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H9" s="7">
         <v>96</v>
@@ -4795,13 +4849,13 @@
         <v>104898</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M9" s="7">
         <v>168</v>
@@ -4810,13 +4864,13 @@
         <v>185919</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4885,13 @@
         <v>424506</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>383</v>
@@ -4846,13 +4900,13 @@
         <v>417758</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>783</v>
@@ -4861,13 +4915,13 @@
         <v>842265</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4995,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4956,7 +5010,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4986,13 +5040,13 @@
         <v>59995</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -5001,13 +5055,13 @@
         <v>77848</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -5016,13 +5070,13 @@
         <v>137843</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5091,13 @@
         <v>264051</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -5052,13 +5106,13 @@
         <v>263172</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>509</v>
@@ -5067,13 +5121,13 @@
         <v>527223</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,7 +5201,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5162,7 +5216,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5177,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,13 +5246,13 @@
         <v>101025</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -5207,13 +5261,13 @@
         <v>142150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>229</v>
@@ -5222,13 +5276,13 @@
         <v>243175</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,13 +5297,13 @@
         <v>567695</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H18" s="7">
         <v>489</v>
@@ -5258,13 +5312,13 @@
         <v>534046</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="M18" s="7">
         <v>1024</v>
@@ -5273,13 +5327,13 @@
         <v>1101741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>252</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,7 +5407,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5368,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5398,13 +5452,13 @@
         <v>32119</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
@@ -5413,13 +5467,13 @@
         <v>57874</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M21" s="7">
         <v>84</v>
@@ -5428,13 +5482,13 @@
         <v>89993</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5503,13 @@
         <v>180499</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H22" s="7">
         <v>157</v>
@@ -5464,13 +5518,13 @@
         <v>161717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>324</v>
@@ -5479,13 +5533,13 @@
         <v>342216</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5604,13 +5658,13 @@
         <v>63529</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -5619,13 +5673,13 @@
         <v>63467</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>122</v>
@@ -5634,13 +5688,13 @@
         <v>126996</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5709,13 @@
         <v>210452</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>207</v>
@@ -5670,13 +5724,13 @@
         <v>214629</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>407</v>
@@ -5685,13 +5739,13 @@
         <v>425081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,7 +5801,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5765,7 +5819,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5795,7 +5849,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5864,13 @@
         <v>125457</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>144</v>
@@ -5825,13 +5879,13 @@
         <v>160118</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>258</v>
@@ -5840,13 +5894,13 @@
         <v>285575</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5915,13 @@
         <v>537331</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H30" s="7">
         <v>492</v>
@@ -5876,13 +5930,13 @@
         <v>533735</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M30" s="7">
         <v>996</v>
@@ -5891,13 +5945,13 @@
         <v>1071066</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,7 +6007,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5971,7 +6025,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5986,7 +6040,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6001,7 +6055,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6070,13 @@
         <v>113432</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H33" s="7">
         <v>126</v>
@@ -6031,13 +6085,13 @@
         <v>138841</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M33" s="7">
         <v>227</v>
@@ -6046,13 +6100,13 @@
         <v>252273</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>19</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6121,13 @@
         <v>665666</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>123</v>
+        <v>326</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="H34" s="7">
         <v>630</v>
@@ -6082,13 +6136,13 @@
         <v>683737</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="M34" s="7">
         <v>1246</v>
@@ -6097,13 +6151,13 @@
         <v>1349403</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>28</v>
+        <v>333</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,7 +6231,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6192,7 +6246,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6207,7 +6261,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6276,13 @@
         <v>576578</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>325</v>
+        <v>173</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H37" s="7">
         <v>691</v>
@@ -6237,13 +6291,13 @@
         <v>745194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="M37" s="7">
         <v>1215</v>
@@ -6252,13 +6306,13 @@
         <v>1321773</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>331</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6327,13 @@
         <v>2850201</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H38" s="7">
         <v>2604</v>
@@ -6288,28 +6342,28 @@
         <v>2808796</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M38" s="7">
         <v>5289</v>
       </c>
       <c r="N38" s="7">
-        <v>5658995</v>
+        <v>5658996</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,7 +6405,7 @@
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6365,7 +6419,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6389,7 +6443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CA8911-4A07-4B01-B5E1-429BAC829C0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E5D15-F54E-4CC3-B8BC-D3185DB71709}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6406,7 +6460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6534,7 +6588,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6549,7 +6603,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6618,13 @@
         <v>34803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -6579,13 +6633,13 @@
         <v>34135</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -6594,13 +6648,13 @@
         <v>68938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6669,13 @@
         <v>258958</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="H6" s="7">
         <v>246</v>
@@ -6630,13 +6684,13 @@
         <v>254568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M6" s="7">
         <v>481</v>
@@ -6645,13 +6699,13 @@
         <v>513526</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,7 +6779,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6740,7 +6794,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6770,13 +6824,13 @@
         <v>83692</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -6785,13 +6839,13 @@
         <v>118194</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -6800,13 +6854,13 @@
         <v>201886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,13 +6875,13 @@
         <v>418883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>384</v>
@@ -6836,13 +6890,13 @@
         <v>404890</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>780</v>
@@ -6851,13 +6905,13 @@
         <v>823773</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6946,7 +7000,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6961,7 +7015,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,10 +7033,10 @@
         <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -6991,13 +7045,13 @@
         <v>50898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -7006,13 +7060,13 @@
         <v>97992</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,10 +7084,10 @@
         <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>287</v>
@@ -7042,13 +7096,13 @@
         <v>285411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -7057,13 +7111,13 @@
         <v>556882</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,7 +7191,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7167,7 +7221,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,13 +7236,13 @@
         <v>61937</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -7197,13 +7251,13 @@
         <v>77741</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -7212,13 +7266,13 @@
         <v>139678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,13 +7287,13 @@
         <v>308027</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H18" s="7">
         <v>293</v>
@@ -7248,13 +7302,13 @@
         <v>309542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>415</v>
       </c>
       <c r="M18" s="7">
         <v>582</v>
@@ -7263,13 +7317,13 @@
         <v>617569</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,7 +7397,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7358,7 +7412,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7373,7 +7427,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,13 +7442,13 @@
         <v>26377</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -7403,13 +7457,13 @@
         <v>43616</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -7418,13 +7472,13 @@
         <v>69993</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7493,13 @@
         <v>184844</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -7454,13 +7508,13 @@
         <v>174971</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>368</v>
@@ -7469,13 +7523,13 @@
         <v>359815</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,7 +7603,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7564,7 +7618,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7594,13 +7648,13 @@
         <v>36219</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -7609,13 +7663,13 @@
         <v>47338</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -7624,13 +7678,13 @@
         <v>83557</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,13 +7699,13 @@
         <v>226904</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
@@ -7660,13 +7714,13 @@
         <v>225777</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>440</v>
@@ -7675,13 +7729,13 @@
         <v>452681</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,7 +7791,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7755,7 +7809,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7785,7 +7839,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7854,13 @@
         <v>94538</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>84</v>
@@ -7815,13 +7869,13 @@
         <v>98655</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>172</v>
@@ -7830,13 +7884,13 @@
         <v>193193</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,13 +7905,13 @@
         <v>562020</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H30" s="7">
         <v>562</v>
@@ -7866,13 +7920,13 @@
         <v>592639</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="M30" s="7">
         <v>1054</v>
@@ -7881,13 +7935,13 @@
         <v>1154659</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,7 +7997,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -7976,7 +8030,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7991,7 +8045,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,13 +8060,13 @@
         <v>129513</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="H33" s="7">
         <v>130</v>
@@ -8021,13 +8075,13 @@
         <v>158826</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="M33" s="7">
         <v>258</v>
@@ -8036,13 +8090,13 @@
         <v>288339</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8057,13 +8111,13 @@
         <v>649070</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="H34" s="7">
         <v>625</v>
@@ -8072,13 +8126,13 @@
         <v>667341</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="M34" s="7">
         <v>1247</v>
@@ -8087,13 +8141,13 @@
         <v>1316411</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8167,7 +8221,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -8182,7 +8236,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -8197,7 +8251,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,10 +8269,10 @@
         <v>128</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="H37" s="7">
         <v>539</v>
@@ -8227,13 +8281,13 @@
         <v>629403</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>280</v>
+        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>1047</v>
@@ -8242,13 +8296,13 @@
         <v>1143577</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,13 +8317,13 @@
         <v>2880176</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="H38" s="7">
         <v>2799</v>
@@ -8278,13 +8332,13 @@
         <v>2915139</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>290</v>
+        <v>506</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="M38" s="7">
         <v>5522</v>
@@ -8293,13 +8347,13 @@
         <v>5795315</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,7 +8409,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -8379,7 +8433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F383FCD9-FA94-4065-887F-C00F6869C7E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B1F134-FA41-4697-91EA-7252D4461C22}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8396,7 +8450,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8509,7 +8563,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8539,7 +8593,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8554,13 +8608,13 @@
         <v>56176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="H5" s="7">
         <v>120</v>
@@ -8569,13 +8623,13 @@
         <v>56274</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
@@ -8584,13 +8638,13 @@
         <v>112450</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8605,13 +8659,13 @@
         <v>204122</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="H6" s="7">
         <v>418</v>
@@ -8620,13 +8674,13 @@
         <v>215129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="M6" s="7">
         <v>664</v>
@@ -8635,13 +8689,13 @@
         <v>419250</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8730,7 +8784,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8745,7 +8799,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8760,13 +8814,13 @@
         <v>89453</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -8775,13 +8829,13 @@
         <v>88878</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="M9" s="7">
         <v>217</v>
@@ -8790,13 +8844,13 @@
         <v>178331</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>524</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8811,13 +8865,13 @@
         <v>428774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="H10" s="7">
         <v>578</v>
@@ -8826,13 +8880,13 @@
         <v>463094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M10" s="7">
         <v>877</v>
@@ -8841,13 +8895,13 @@
         <v>891868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>532</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8951,7 +9005,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8966,13 +9020,13 @@
         <v>66827</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>516</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -8981,13 +9035,13 @@
         <v>83624</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>550</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
@@ -8996,13 +9050,13 @@
         <v>150451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9017,13 +9071,13 @@
         <v>253794</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>525</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>390</v>
@@ -9032,13 +9086,13 @@
         <v>289660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>559</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -9047,13 +9101,13 @@
         <v>543454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9127,7 +9181,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9142,7 +9196,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9157,7 +9211,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9172,13 +9226,13 @@
         <v>68464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="H17" s="7">
         <v>199</v>
@@ -9187,13 +9241,13 @@
         <v>93220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="M17" s="7">
         <v>283</v>
@@ -9202,13 +9256,13 @@
         <v>161684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9223,13 +9277,13 @@
         <v>253776</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="H18" s="7">
         <v>400</v>
@@ -9238,13 +9292,13 @@
         <v>335336</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="M18" s="7">
         <v>608</v>
@@ -9253,13 +9307,13 @@
         <v>589112</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9333,7 +9387,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9342,13 +9396,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9357,13 +9411,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9378,13 +9432,13 @@
         <v>47546</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="H21" s="7">
         <v>161</v>
@@ -9393,13 +9447,13 @@
         <v>67358</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="M21" s="7">
         <v>240</v>
@@ -9408,13 +9462,13 @@
         <v>114903</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9429,13 +9483,13 @@
         <v>149202</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="H22" s="7">
         <v>329</v>
@@ -9444,13 +9498,13 @@
         <v>163689</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="M22" s="7">
         <v>529</v>
@@ -9459,13 +9513,13 @@
         <v>312890</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9539,7 +9593,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9554,7 +9608,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9563,13 +9617,13 @@
         <v>718</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>592</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9584,13 +9638,13 @@
         <v>76501</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="H25" s="7">
         <v>153</v>
@@ -9599,13 +9653,13 @@
         <v>64821</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="M25" s="7">
         <v>289</v>
@@ -9614,13 +9668,13 @@
         <v>141323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>226</v>
+        <v>613</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9635,13 +9689,13 @@
         <v>200722</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="H26" s="7">
         <v>306</v>
@@ -9650,13 +9704,13 @@
         <v>210083</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="M26" s="7">
         <v>541</v>
@@ -9665,13 +9719,13 @@
         <v>410804</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9727,7 +9781,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9745,7 +9799,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9775,7 +9829,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9790,13 +9844,13 @@
         <v>115114</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>611</v>
+        <v>250</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>553</v>
+        <v>626</v>
       </c>
       <c r="H29" s="7">
         <v>237</v>
@@ -9805,13 +9859,13 @@
         <v>255980</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="M29" s="7">
         <v>368</v>
@@ -9820,13 +9874,13 @@
         <v>371094</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>631</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9841,13 +9895,13 @@
         <v>510843</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>618</v>
+        <v>256</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>562</v>
+        <v>633</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="H30" s="7">
         <v>721</v>
@@ -9856,28 +9910,28 @@
         <v>547397</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="M30" s="7">
         <v>1186</v>
       </c>
       <c r="N30" s="7">
-        <v>1058240</v>
+        <v>1058241</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>31</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9919,7 +9973,7 @@
         <v>1554</v>
       </c>
       <c r="N31" s="7">
-        <v>1429334</v>
+        <v>1429335</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -9933,7 +9987,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9951,7 +10005,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -9960,13 +10014,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -9975,13 +10029,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>549</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9996,13 +10050,13 @@
         <v>140446</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>469</v>
+        <v>643</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>130</v>
+        <v>645</v>
       </c>
       <c r="H33" s="7">
         <v>268</v>
@@ -10011,13 +10065,13 @@
         <v>187103</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="M33" s="7">
         <v>440</v>
@@ -10026,13 +10080,13 @@
         <v>327549</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>630</v>
+        <v>550</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>631</v>
+        <v>269</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10047,13 +10101,13 @@
         <v>718982</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>479</v>
+        <v>650</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>137</v>
+        <v>651</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="H34" s="7">
         <v>793</v>
@@ -10062,13 +10116,13 @@
         <v>678569</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>543</v>
+        <v>654</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="M34" s="7">
         <v>1383</v>
@@ -10077,13 +10131,13 @@
         <v>1397551</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10157,7 +10211,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10166,13 +10220,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10181,13 +10235,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10202,13 +10256,13 @@
         <v>660526</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="H37" s="7">
         <v>1419</v>
@@ -10217,13 +10271,13 @@
         <v>897259</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="M37" s="7">
         <v>2283</v>
@@ -10232,13 +10286,13 @@
         <v>1557786</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>129</v>
+        <v>429</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10253,13 +10307,13 @@
         <v>2720215</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="H38" s="7">
         <v>3935</v>
@@ -10268,13 +10322,13 @@
         <v>2902955</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="M38" s="7">
         <v>6441</v>
@@ -10283,13 +10337,13 @@
         <v>5623170</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>660</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10345,7 +10399,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1403-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4106278C-A98F-4CF8-BBC7-A49B60F2E056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6ABC6C0-4F07-4088-A52F-27F7DE0806D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD9669D6-11A4-4A91-8113-B6B8FAA74897}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{664DFF6E-DDFC-410B-9349-42E4226DAEE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="658">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>13,36%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>86,64%</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,1915 +167,1852 @@
     <t>9,54%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>17,52%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>11,5%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>15,87%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
   </si>
   <si>
     <t>84,13%</t>
   </si>
   <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
   </si>
   <si>
     <t>79,55%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B9967D-82A7-4537-8977-A6E5C2A7001C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AD8C59-28E9-4694-8A5C-C96A3E1C3480}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3725,10 +3662,10 @@
         <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3680,13 @@
         <v>229788</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
@@ -3758,13 +3695,13 @@
         <v>225423</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>445</v>
@@ -3773,13 +3710,13 @@
         <v>455211</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,7 +3772,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3853,7 +3790,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3868,7 +3805,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3883,7 +3820,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3835,13 @@
         <v>87975</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H29" s="7">
         <v>109</v>
@@ -3913,13 +3850,13 @@
         <v>110888</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>199</v>
@@ -3928,13 +3865,13 @@
         <v>198863</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3886,13 @@
         <v>527052</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H30" s="7">
         <v>512</v>
@@ -3964,13 +3901,13 @@
         <v>527331</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M30" s="7">
         <v>1020</v>
@@ -3979,7 +3916,7 @@
         <v>1054383</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>164</v>
@@ -4358,7 +4295,7 @@
         <v>2777</v>
       </c>
       <c r="D38" s="7">
-        <v>2849324</v>
+        <v>2849323</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>197</v>
@@ -4409,7 +4346,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -4477,7 +4414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E715833D-E4FD-4ABF-92CD-C9DB5DC08DD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DACE4B4-429A-47B5-8546-1EDF9956A713}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4867,10 +4804,10 @@
         <v>216</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4822,13 @@
         <v>424506</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H10" s="7">
         <v>383</v>
@@ -4900,13 +4837,13 @@
         <v>417758</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>783</v>
@@ -4915,13 +4852,13 @@
         <v>842265</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,7 +4932,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5010,7 +4947,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5040,13 +4977,13 @@
         <v>59995</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -5055,13 +4992,13 @@
         <v>77848</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -5070,13 +5007,13 @@
         <v>137843</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5028,13 @@
         <v>264051</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>246</v>
@@ -5106,13 +5043,13 @@
         <v>263172</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>509</v>
@@ -5121,13 +5058,13 @@
         <v>527223</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,7 +5138,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5216,7 +5153,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5231,7 +5168,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5183,13 @@
         <v>101025</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -5261,13 +5198,13 @@
         <v>142150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>229</v>
@@ -5279,10 +5216,10 @@
         <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5234,13 @@
         <v>567695</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H18" s="7">
         <v>489</v>
@@ -5312,13 +5249,13 @@
         <v>534046</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>258</v>
+        <v>54</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>1024</v>
@@ -5327,13 +5264,13 @@
         <v>1101741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5344,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5422,7 +5359,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5452,13 +5389,13 @@
         <v>32119</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
@@ -5467,13 +5404,13 @@
         <v>57874</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M21" s="7">
         <v>84</v>
@@ -5482,13 +5419,13 @@
         <v>89993</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5440,13 @@
         <v>180499</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>157</v>
@@ -5518,13 +5455,13 @@
         <v>161717</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>324</v>
@@ -5533,13 +5470,13 @@
         <v>342216</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,7 +5550,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5658,13 +5595,13 @@
         <v>63529</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>61</v>
@@ -5673,13 +5610,13 @@
         <v>63467</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>122</v>
@@ -5688,13 +5625,13 @@
         <v>126996</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5646,13 @@
         <v>210452</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>207</v>
@@ -5724,13 +5661,13 @@
         <v>214629</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>407</v>
@@ -5739,13 +5676,13 @@
         <v>425081</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,7 +5738,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5819,7 +5756,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5849,7 +5786,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5801,13 @@
         <v>125457</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H29" s="7">
         <v>144</v>
@@ -5879,13 +5816,13 @@
         <v>160118</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M29" s="7">
         <v>258</v>
@@ -5894,13 +5831,13 @@
         <v>285575</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5852,13 @@
         <v>537331</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>492</v>
@@ -5930,13 +5867,13 @@
         <v>533735</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M30" s="7">
         <v>996</v>
@@ -5945,13 +5882,13 @@
         <v>1071066</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,7 +5962,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6040,7 +5977,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6070,13 +6007,13 @@
         <v>113432</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H33" s="7">
         <v>126</v>
@@ -6085,13 +6022,13 @@
         <v>138841</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M33" s="7">
         <v>227</v>
@@ -6100,13 +6037,13 @@
         <v>252273</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6058,13 @@
         <v>665666</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H34" s="7">
         <v>630</v>
@@ -6136,13 +6073,13 @@
         <v>683737</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>331</v>
+        <v>141</v>
       </c>
       <c r="M34" s="7">
         <v>1246</v>
@@ -6151,13 +6088,13 @@
         <v>1349403</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6213,13 @@
         <v>576578</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>173</v>
+        <v>327</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H37" s="7">
         <v>691</v>
@@ -6291,13 +6228,13 @@
         <v>745194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>338</v>
+        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M37" s="7">
         <v>1215</v>
@@ -6306,13 +6243,13 @@
         <v>1321773</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6264,13 @@
         <v>2850201</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>181</v>
+        <v>333</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H38" s="7">
         <v>2604</v>
@@ -6342,28 +6279,28 @@
         <v>2808796</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>345</v>
+        <v>31</v>
       </c>
       <c r="M38" s="7">
         <v>5289</v>
       </c>
       <c r="N38" s="7">
-        <v>5658996</v>
+        <v>5658995</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,7 +6342,7 @@
         <v>6504</v>
       </c>
       <c r="N39" s="7">
-        <v>6980769</v>
+        <v>6980768</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
@@ -6443,7 +6380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E5D15-F54E-4CC3-B8BC-D3185DB71709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E214576-5445-420C-A8C5-488A3501C9AB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6460,7 +6397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6588,7 +6525,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6603,7 +6540,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6555,13 @@
         <v>34803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>350</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>31</v>
@@ -6633,13 +6570,13 @@
         <v>34135</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -6648,13 +6585,13 @@
         <v>68938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,13 +6606,13 @@
         <v>258958</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>359</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H6" s="7">
         <v>246</v>
@@ -6684,13 +6621,13 @@
         <v>254568</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>481</v>
@@ -6699,13 +6636,13 @@
         <v>513526</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6761,13 @@
         <v>83692</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -6839,13 +6776,13 @@
         <v>118194</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="M9" s="7">
         <v>179</v>
@@ -6854,13 +6791,13 @@
         <v>201886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6812,13 @@
         <v>418883</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>384</v>
@@ -6890,13 +6827,13 @@
         <v>404890</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>780</v>
@@ -6905,13 +6842,13 @@
         <v>823773</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,7 +6937,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7015,7 +6952,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,10 +6970,10 @@
         <v>110</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -7045,13 +6982,13 @@
         <v>50898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -7060,13 +6997,13 @@
         <v>97992</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,10 +7021,10 @@
         <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>287</v>
@@ -7096,13 +7033,13 @@
         <v>285411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>570</v>
@@ -7111,13 +7048,13 @@
         <v>556882</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,7 +7128,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7221,7 +7158,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7173,13 @@
         <v>61937</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -7254,10 +7191,10 @@
         <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>130</v>
@@ -7266,13 +7203,13 @@
         <v>139678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7224,13 @@
         <v>308027</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H18" s="7">
         <v>293</v>
@@ -7302,13 +7239,13 @@
         <v>309542</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M18" s="7">
         <v>582</v>
@@ -7317,13 +7254,13 @@
         <v>617569</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,7 +7334,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7412,7 +7349,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7427,7 +7364,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,13 +7379,13 @@
         <v>26377</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>423</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -7457,13 +7394,13 @@
         <v>43616</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -7472,13 +7409,13 @@
         <v>69993</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,13 +7430,13 @@
         <v>184844</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -7508,13 +7445,13 @@
         <v>174971</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>368</v>
@@ -7523,13 +7460,13 @@
         <v>359815</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,7 +7540,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7618,7 +7555,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7648,13 +7585,13 @@
         <v>36219</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -7663,13 +7600,13 @@
         <v>47338</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -7678,13 +7615,13 @@
         <v>83557</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7699,13 +7636,13 @@
         <v>226904</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>220</v>
@@ -7714,13 +7651,13 @@
         <v>225777</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>440</v>
@@ -7729,13 +7666,13 @@
         <v>452681</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,7 +7728,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7809,7 +7746,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7839,7 +7776,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7854,13 +7791,13 @@
         <v>94538</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="H29" s="7">
         <v>84</v>
@@ -7869,13 +7806,13 @@
         <v>98655</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>150</v>
       </c>
       <c r="M29" s="7">
         <v>172</v>
@@ -7884,13 +7821,13 @@
         <v>193193</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,13 +7842,13 @@
         <v>562020</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>470</v>
+        <v>355</v>
       </c>
       <c r="H30" s="7">
         <v>562</v>
@@ -7920,13 +7857,13 @@
         <v>592639</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>472</v>
+        <v>158</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="M30" s="7">
         <v>1054</v>
@@ -7935,13 +7872,13 @@
         <v>1154659</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>476</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,7 +7967,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8060,13 +7997,13 @@
         <v>129513</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="H33" s="7">
         <v>130</v>
@@ -8075,13 +8012,13 @@
         <v>158826</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="M33" s="7">
         <v>258</v>
@@ -8090,13 +8027,13 @@
         <v>288339</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8111,13 +8048,13 @@
         <v>649070</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="H34" s="7">
         <v>625</v>
@@ -8126,13 +8063,13 @@
         <v>667341</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="M34" s="7">
         <v>1247</v>
@@ -8141,13 +8078,13 @@
         <v>1316411</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8269,10 +8206,10 @@
         <v>128</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="H37" s="7">
         <v>539</v>
@@ -8281,13 +8218,13 @@
         <v>629403</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>497</v>
+        <v>313</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="M37" s="7">
         <v>1047</v>
@@ -8296,13 +8233,13 @@
         <v>1143577</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>501</v>
+        <v>436</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,13 +8254,13 @@
         <v>2880176</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="H38" s="7">
         <v>2799</v>
@@ -8332,13 +8269,13 @@
         <v>2915139</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>505</v>
+        <v>320</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="M38" s="7">
         <v>5522</v>
@@ -8347,13 +8284,13 @@
         <v>5795315</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>510</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,7 +8370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B1F134-FA41-4697-91EA-7252D4461C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED028C12-EE8A-4072-A8F8-9A45CFBC0A1B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8450,7 +8387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8563,7 +8500,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8593,7 +8530,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8608,13 +8545,13 @@
         <v>56176</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="H5" s="7">
         <v>120</v>
@@ -8623,13 +8560,13 @@
         <v>56274</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
@@ -8638,13 +8575,13 @@
         <v>112450</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8659,13 +8596,13 @@
         <v>204122</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="H6" s="7">
         <v>418</v>
@@ -8674,13 +8611,13 @@
         <v>215129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="M6" s="7">
         <v>664</v>
@@ -8689,13 +8626,13 @@
         <v>419250</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8784,7 +8721,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -8799,7 +8736,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8814,13 +8751,13 @@
         <v>89453</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>530</v>
+        <v>173</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -8829,13 +8766,13 @@
         <v>88878</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="M9" s="7">
         <v>217</v>
@@ -8844,13 +8781,13 @@
         <v>178331</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8865,13 +8802,13 @@
         <v>428774</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>538</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="H10" s="7">
         <v>578</v>
@@ -8880,13 +8817,13 @@
         <v>463094</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="M10" s="7">
         <v>877</v>
@@ -8895,13 +8832,13 @@
         <v>891868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9005,7 +8942,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9020,13 +8957,13 @@
         <v>66827</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>146</v>
@@ -9035,13 +8972,13 @@
         <v>83624</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
@@ -9050,13 +8987,13 @@
         <v>150451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9071,13 +9008,13 @@
         <v>253794</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>556</v>
+        <v>534</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>390</v>
@@ -9086,13 +9023,13 @@
         <v>289660</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>559</v>
+        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>653</v>
@@ -9101,13 +9038,13 @@
         <v>543454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>560</v>
+        <v>538</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>561</v>
+        <v>539</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>562</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9181,7 +9118,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9196,7 +9133,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -9211,7 +9148,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9226,13 +9163,13 @@
         <v>68464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>565</v>
+        <v>543</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>199</v>
@@ -9241,13 +9178,13 @@
         <v>93220</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>283</v>
@@ -9256,13 +9193,13 @@
         <v>161684</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>570</v>
+        <v>548</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>572</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9277,13 +9214,13 @@
         <v>253776</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>574</v>
+        <v>552</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>575</v>
+        <v>553</v>
       </c>
       <c r="H18" s="7">
         <v>400</v>
@@ -9292,13 +9229,13 @@
         <v>335336</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="M18" s="7">
         <v>608</v>
@@ -9307,13 +9244,13 @@
         <v>589112</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>581</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9387,7 +9324,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -9396,13 +9333,13 @@
         <v>28017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -9411,13 +9348,13 @@
         <v>28017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9432,13 +9369,13 @@
         <v>47546</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="H21" s="7">
         <v>161</v>
@@ -9447,13 +9384,13 @@
         <v>67358</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>591</v>
+        <v>569</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>592</v>
+        <v>570</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="M21" s="7">
         <v>240</v>
@@ -9462,13 +9399,13 @@
         <v>114903</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>594</v>
+        <v>572</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>595</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9483,13 +9420,13 @@
         <v>149202</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>329</v>
@@ -9498,13 +9435,13 @@
         <v>163689</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>529</v>
@@ -9513,13 +9450,13 @@
         <v>312890</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9593,7 +9530,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -9608,7 +9545,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9623,7 +9560,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9638,13 +9575,13 @@
         <v>76501</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="H25" s="7">
         <v>153</v>
@@ -9653,13 +9590,13 @@
         <v>64821</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="M25" s="7">
         <v>289</v>
@@ -9668,13 +9605,13 @@
         <v>141323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9689,13 +9626,13 @@
         <v>200722</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="H26" s="7">
         <v>306</v>
@@ -9704,13 +9641,13 @@
         <v>210083</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="M26" s="7">
         <v>541</v>
@@ -9719,13 +9656,13 @@
         <v>410804</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9781,7 +9718,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9799,7 +9736,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -9829,7 +9766,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9844,13 +9781,13 @@
         <v>115114</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>250</v>
+        <v>602</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>626</v>
+        <v>604</v>
       </c>
       <c r="H29" s="7">
         <v>237</v>
@@ -9859,13 +9796,13 @@
         <v>255980</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="M29" s="7">
         <v>368</v>
@@ -9874,13 +9811,13 @@
         <v>371094</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>630</v>
+        <v>608</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>631</v>
+        <v>609</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>632</v>
+        <v>610</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9895,13 +9832,13 @@
         <v>510843</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>256</v>
+        <v>611</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
       <c r="H30" s="7">
         <v>721</v>
@@ -9910,13 +9847,13 @@
         <v>547397</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="M30" s="7">
         <v>1186</v>
@@ -9925,13 +9862,13 @@
         <v>1058241</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>638</v>
+        <v>617</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>640</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10005,7 +9942,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10014,13 +9951,13 @@
         <v>2762</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>641</v>
+        <v>620</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -10029,13 +9966,13 @@
         <v>2762</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,13 +9987,13 @@
         <v>140446</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="H33" s="7">
         <v>268</v>
@@ -10065,13 +10002,13 @@
         <v>187103</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="M33" s="7">
         <v>440</v>
@@ -10080,13 +10017,13 @@
         <v>327549</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>269</v>
+        <v>628</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10101,13 +10038,13 @@
         <v>718982</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="H34" s="7">
         <v>793</v>
@@ -10116,13 +10053,13 @@
         <v>678569</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="M34" s="7">
         <v>1383</v>
@@ -10131,13 +10068,13 @@
         <v>1397551</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10220,13 +10157,13 @@
         <v>31497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10235,13 +10172,13 @@
         <v>31497</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10256,13 +10193,13 @@
         <v>660526</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>664</v>
+        <v>87</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="H37" s="7">
         <v>1419</v>
@@ -10271,13 +10208,13 @@
         <v>897259</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="M37" s="7">
         <v>2283</v>
@@ -10286,13 +10223,13 @@
         <v>1557786</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>429</v>
+        <v>298</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10307,13 +10244,13 @@
         <v>2720215</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>673</v>
+        <v>95</v>
       </c>
       <c r="H38" s="7">
         <v>3935</v>
@@ -10322,13 +10259,13 @@
         <v>2902955</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="M38" s="7">
         <v>6441</v>
@@ -10337,13 +10274,13 @@
         <v>5623170</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>677</v>
+        <v>655</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>678</v>
+        <v>656</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>120</v>
+        <v>657</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1403-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F523D0E4-E0C0-44E2-9A21-D285AAE333EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA55DFC7-C9D9-46C8-8617-0AAFE54824BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7D76AC7-793B-48F2-90B8-3194A3F9B9B9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{84185D28-D5E7-4A9E-BD61-B4CE085BF4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="614">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -569,7 +569,52 @@
     <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>16,03%</t>
@@ -674,72 +719,90 @@
     <t>82,15%</t>
   </si>
   <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
     <t>15,11%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
   </si>
   <si>
     <t>84,89%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
     <t>79,48%</t>
   </si>
   <si>
@@ -1406,430 +1469,418 @@
     <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>18,32%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>81,68%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6BD26D-C24C-4E65-8527-0A1FE3011894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC744E68-D9A4-41D3-B57D-C9CBB991CD20}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3653,7 +3704,7 @@
         <v>2777</v>
       </c>
       <c r="D29" s="7">
-        <v>2849324</v>
+        <v>2849323</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>166</v>
@@ -3668,7 +3719,7 @@
         <v>2741</v>
       </c>
       <c r="I29" s="7">
-        <v>2806398</v>
+        <v>2806397</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>169</v>
@@ -3683,7 +3734,7 @@
         <v>5518</v>
       </c>
       <c r="N29" s="7">
-        <v>5655720</v>
+        <v>5655721</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>68</v>
@@ -3704,7 +3755,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3719,7 +3770,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3734,7 +3785,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3772,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E44E65-A6B8-408E-AE9C-1EE99CE24746}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62F5264-F392-4BB6-850C-76B916EFCAA2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3890,43 +3941,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D4" s="7">
+        <v>32759</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="I4" s="7">
+        <v>43323</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="N4" s="7">
+        <v>76082</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,43 +3992,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="D5" s="7">
+        <v>261979</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="I5" s="7">
+        <v>243922</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>466</v>
+      </c>
+      <c r="N5" s="7">
+        <v>505901</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,43 +4043,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4102,13 @@
         <v>81021</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H7" s="7">
         <v>96</v>
@@ -4048,13 +4117,13 @@
         <v>104898</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>168</v>
@@ -4063,13 +4132,13 @@
         <v>185919</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4153,13 @@
         <v>424506</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H8" s="7">
         <v>383</v>
@@ -4099,13 +4168,13 @@
         <v>417758</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M8" s="7">
         <v>783</v>
@@ -4114,13 +4183,13 @@
         <v>842265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4257,13 @@
         <v>59995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4203,13 +4272,13 @@
         <v>77848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>127</v>
@@ -4218,13 +4287,13 @@
         <v>137843</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4308,13 @@
         <v>264051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4254,13 +4323,13 @@
         <v>263172</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>509</v>
@@ -4269,13 +4338,13 @@
         <v>527223</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,49 +4406,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>101025</v>
+        <v>68266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="I13" s="7">
-        <v>142150</v>
+        <v>98827</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="N13" s="7">
-        <v>243175</v>
+        <v>167093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,49 +4457,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>535</v>
+        <v>284</v>
       </c>
       <c r="D14" s="7">
-        <v>567695</v>
+        <v>305716</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
-        <v>489</v>
+        <v>274</v>
       </c>
       <c r="I14" s="7">
-        <v>534046</v>
+        <v>290124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
-        <v>1024</v>
+        <v>558</v>
       </c>
       <c r="N14" s="7">
-        <v>1101741</v>
+        <v>595840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,10 +4508,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4454,10 +4523,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4469,10 +4538,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4498,13 +4567,13 @@
         <v>32119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4513,13 +4582,13 @@
         <v>57874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>84</v>
@@ -4528,13 +4597,13 @@
         <v>89993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4618,13 @@
         <v>180499</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4564,13 +4633,13 @@
         <v>161717</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>324</v>
@@ -4579,13 +4648,13 @@
         <v>342216</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4722,13 @@
         <v>63529</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -4668,13 +4737,13 @@
         <v>63467</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4683,13 +4752,13 @@
         <v>126996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4773,13 @@
         <v>210452</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -4719,13 +4788,13 @@
         <v>214629</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
@@ -4734,13 +4803,13 @@
         <v>425081</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4877,13 @@
         <v>125457</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>144</v>
@@ -4823,13 +4892,13 @@
         <v>160118</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>258</v>
@@ -4838,13 +4907,13 @@
         <v>285575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4928,13 @@
         <v>537331</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7">
         <v>492</v>
@@ -4874,13 +4943,13 @@
         <v>533735</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>996</v>
@@ -4889,13 +4958,13 @@
         <v>1071066</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,10 +5035,10 @@
         <v>97</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>126</v>
@@ -4978,13 +5047,13 @@
         <v>138841</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>227</v>
@@ -4993,10 +5062,10 @@
         <v>252273</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -5017,10 +5086,10 @@
         <v>105</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -5029,13 +5098,13 @@
         <v>683737</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>1246</v>
@@ -5044,13 +5113,13 @@
         <v>1349403</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5187,13 @@
         <v>576578</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>691</v>
@@ -5133,13 +5202,13 @@
         <v>745194</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>1215</v>
@@ -5148,13 +5217,13 @@
         <v>1321773</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5238,13 @@
         <v>2850201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="H29" s="7">
         <v>2604</v>
@@ -5184,28 +5253,28 @@
         <v>2808796</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="M29" s="7">
         <v>5289</v>
       </c>
       <c r="N29" s="7">
-        <v>5658995</v>
+        <v>5658996</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,7 +5316,7 @@
         <v>6504</v>
       </c>
       <c r="N30" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5285,7 +5354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C97A7F4-7C75-4A5B-944F-E1A69464E9B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5ECCCC-B577-4D1B-9CCE-CBAFA9E6F634}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5302,7 +5371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5409,13 +5478,13 @@
         <v>34803</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -5424,13 +5493,13 @@
         <v>34135</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -5442,10 +5511,10 @@
         <v>144</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5529,13 @@
         <v>258958</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>246</v>
@@ -5475,13 +5544,13 @@
         <v>254568</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>481</v>
@@ -5493,10 +5562,10 @@
         <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5633,13 @@
         <v>83692</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5579,13 +5648,13 @@
         <v>118194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>179</v>
@@ -5594,13 +5663,13 @@
         <v>201886</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5684,13 @@
         <v>418883</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>384</v>
@@ -5630,13 +5699,13 @@
         <v>404890</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>780</v>
@@ -5645,13 +5714,13 @@
         <v>823773</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,10 +5791,10 @@
         <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -5734,13 +5803,13 @@
         <v>50898</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -5749,13 +5818,13 @@
         <v>97992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,10 +5842,10 @@
         <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>287</v>
@@ -5785,13 +5854,13 @@
         <v>285411</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -5800,13 +5869,13 @@
         <v>556882</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5943,13 @@
         <v>61937</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -5889,13 +5958,13 @@
         <v>77741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -5904,13 +5973,13 @@
         <v>139678</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5994,13 @@
         <v>308027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>293</v>
@@ -5940,13 +6009,13 @@
         <v>309542</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>582</v>
@@ -5955,13 +6024,13 @@
         <v>617569</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6098,13 @@
         <v>26377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -6044,13 +6113,13 @@
         <v>43616</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -6059,13 +6128,13 @@
         <v>69993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6149,13 @@
         <v>184844</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>182</v>
@@ -6095,13 +6164,13 @@
         <v>174971</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>368</v>
@@ -6110,13 +6179,13 @@
         <v>359815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6253,13 @@
         <v>36219</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>43</v>
@@ -6199,13 +6268,13 @@
         <v>47338</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>82</v>
@@ -6214,13 +6283,13 @@
         <v>83557</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6304,13 @@
         <v>226904</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>220</v>
@@ -6250,13 +6319,13 @@
         <v>225777</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>440</v>
@@ -6265,13 +6334,13 @@
         <v>452681</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,13 +6408,13 @@
         <v>94538</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>84</v>
@@ -6354,13 +6423,13 @@
         <v>98655</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>172</v>
@@ -6369,13 +6438,13 @@
         <v>193193</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6459,13 @@
         <v>562020</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>562</v>
@@ -6405,13 +6474,13 @@
         <v>592639</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="M23" s="7">
         <v>1054</v>
@@ -6420,13 +6489,13 @@
         <v>1154659</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,13 +6563,13 @@
         <v>129513</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>130</v>
@@ -6509,13 +6578,13 @@
         <v>158826</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>258</v>
@@ -6524,13 +6593,13 @@
         <v>288339</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6614,13 @@
         <v>649070</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>625</v>
@@ -6560,13 +6629,13 @@
         <v>667341</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -6575,13 +6644,13 @@
         <v>1316411</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,10 +6721,10 @@
         <v>108</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>539</v>
@@ -6664,13 +6733,13 @@
         <v>629403</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="M28" s="7">
         <v>1047</v>
@@ -6679,13 +6748,13 @@
         <v>1143577</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,10 +6772,10 @@
         <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>2799</v>
@@ -6715,13 +6784,13 @@
         <v>2915139</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>5522</v>
@@ -6730,13 +6799,13 @@
         <v>5795315</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A76D3D-C6F0-4074-90BF-FE22ADCA61F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EC1712-4DA6-4462-9267-C016971AA395}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6833,7 +6902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6937,46 +7006,46 @@
         <v>85</v>
       </c>
       <c r="D4" s="7">
-        <v>56176</v>
+        <v>61752</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="H4" s="7">
         <v>120</v>
       </c>
       <c r="I4" s="7">
-        <v>56274</v>
+        <v>57790</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>396</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="M4" s="7">
         <v>205</v>
       </c>
       <c r="N4" s="7">
-        <v>112450</v>
+        <v>119542</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6988,46 +7057,46 @@
         <v>246</v>
       </c>
       <c r="D5" s="7">
-        <v>204122</v>
+        <v>249691</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>418</v>
       </c>
       <c r="I5" s="7">
-        <v>215129</v>
+        <v>231845</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>193</v>
+        <v>405</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>664</v>
       </c>
       <c r="N5" s="7">
-        <v>419250</v>
+        <v>481535</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,7 +7108,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7054,7 +7123,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7069,7 +7138,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7092,46 +7161,46 @@
         <v>82</v>
       </c>
       <c r="D7" s="7">
-        <v>89453</v>
+        <v>84880</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="H7" s="7">
         <v>135</v>
       </c>
       <c r="I7" s="7">
-        <v>88878</v>
+        <v>81672</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="M7" s="7">
         <v>217</v>
       </c>
       <c r="N7" s="7">
-        <v>178331</v>
+        <v>166552</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,46 +7212,46 @@
         <v>299</v>
       </c>
       <c r="D8" s="7">
-        <v>428774</v>
+        <v>432513</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="H8" s="7">
         <v>578</v>
       </c>
       <c r="I8" s="7">
-        <v>463094</v>
+        <v>430905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="M8" s="7">
         <v>877</v>
       </c>
       <c r="N8" s="7">
-        <v>891868</v>
+        <v>863418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,7 +7263,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7209,7 +7278,7 @@
         <v>713</v>
       </c>
       <c r="I9" s="7">
-        <v>551972</v>
+        <v>512577</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7224,7 +7293,7 @@
         <v>1094</v>
       </c>
       <c r="N9" s="7">
-        <v>1070199</v>
+        <v>1029970</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7247,46 +7316,46 @@
         <v>95</v>
       </c>
       <c r="D10" s="7">
-        <v>66827</v>
+        <v>63673</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>471</v>
+        <v>509</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="H10" s="7">
         <v>146</v>
       </c>
       <c r="I10" s="7">
-        <v>83624</v>
+        <v>76921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
       </c>
       <c r="N10" s="7">
-        <v>150451</v>
+        <v>140593</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,46 +7367,46 @@
         <v>263</v>
       </c>
       <c r="D11" s="7">
-        <v>253794</v>
+        <v>250812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="H11" s="7">
         <v>390</v>
       </c>
       <c r="I11" s="7">
-        <v>289660</v>
+        <v>272207</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>522</v>
       </c>
       <c r="M11" s="7">
         <v>653</v>
       </c>
       <c r="N11" s="7">
-        <v>543454</v>
+        <v>523019</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,7 +7418,7 @@
         <v>358</v>
       </c>
       <c r="D12" s="7">
-        <v>320621</v>
+        <v>314485</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7364,7 +7433,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7379,7 +7448,7 @@
         <v>894</v>
       </c>
       <c r="N12" s="7">
-        <v>693905</v>
+        <v>663612</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7402,46 +7471,46 @@
         <v>84</v>
       </c>
       <c r="D13" s="7">
-        <v>68464</v>
+        <v>64707</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>199</v>
       </c>
       <c r="I13" s="7">
-        <v>93220</v>
+        <v>87279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>283</v>
       </c>
       <c r="N13" s="7">
-        <v>161684</v>
+        <v>151986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>510</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>511</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,46 +7522,46 @@
         <v>208</v>
       </c>
       <c r="D14" s="7">
-        <v>253776</v>
+        <v>247850</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="H14" s="7">
         <v>400</v>
       </c>
       <c r="I14" s="7">
-        <v>335336</v>
+        <v>388439</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="M14" s="7">
         <v>608</v>
       </c>
       <c r="N14" s="7">
-        <v>589112</v>
+        <v>636288</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>519</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>520</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,7 +7573,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7519,7 +7588,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7534,7 +7603,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7557,46 +7626,46 @@
         <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>47546</v>
+        <v>43227</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="H16" s="7">
         <v>161</v>
       </c>
       <c r="I16" s="7">
-        <v>67358</v>
+        <v>61219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="M16" s="7">
         <v>240</v>
       </c>
       <c r="N16" s="7">
-        <v>114903</v>
+        <v>104446</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,46 +7677,46 @@
         <v>200</v>
       </c>
       <c r="D17" s="7">
-        <v>149202</v>
+        <v>135515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="H17" s="7">
         <v>329</v>
       </c>
       <c r="I17" s="7">
-        <v>163688</v>
+        <v>146656</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="M17" s="7">
         <v>529</v>
       </c>
       <c r="N17" s="7">
-        <v>312891</v>
+        <v>282171</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,7 +7728,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7674,7 +7743,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231046</v>
+        <v>207875</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7689,7 +7758,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427794</v>
+        <v>386617</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7712,46 +7781,46 @@
         <v>136</v>
       </c>
       <c r="D19" s="7">
-        <v>76501</v>
+        <v>73066</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H19" s="7">
         <v>153</v>
       </c>
       <c r="I19" s="7">
-        <v>64822</v>
+        <v>60470</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>541</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
       </c>
       <c r="N19" s="7">
-        <v>141323</v>
+        <v>133536</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,46 +7832,46 @@
         <v>235</v>
       </c>
       <c r="D20" s="7">
-        <v>200722</v>
+        <v>196570</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="H20" s="7">
         <v>306</v>
       </c>
       <c r="I20" s="7">
-        <v>210083</v>
+        <v>195917</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>551</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>541</v>
       </c>
       <c r="N20" s="7">
-        <v>410804</v>
+        <v>392487</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,7 +7883,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7829,7 +7898,7 @@
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7844,7 +7913,7 @@
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7867,46 +7936,46 @@
         <v>131</v>
       </c>
       <c r="D22" s="7">
-        <v>115114</v>
+        <v>109869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>556</v>
+        <v>336</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>237</v>
       </c>
       <c r="I22" s="7">
-        <v>255980</v>
+        <v>338078</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>558</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>368</v>
       </c>
       <c r="N22" s="7">
-        <v>371094</v>
+        <v>447947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>16</v>
+        <v>575</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,46 +7987,46 @@
         <v>465</v>
       </c>
       <c r="D23" s="7">
-        <v>510843</v>
+        <v>512720</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>563</v>
+        <v>343</v>
       </c>
       <c r="H23" s="7">
         <v>721</v>
       </c>
       <c r="I23" s="7">
-        <v>547397</v>
+        <v>510408</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>566</v>
+        <v>326</v>
       </c>
       <c r="M23" s="7">
         <v>1186</v>
       </c>
       <c r="N23" s="7">
-        <v>1058240</v>
+        <v>1023128</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>25</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,7 +8038,7 @@
         <v>596</v>
       </c>
       <c r="D24" s="7">
-        <v>625957</v>
+        <v>622589</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7984,7 +8053,7 @@
         <v>958</v>
       </c>
       <c r="I24" s="7">
-        <v>803377</v>
+        <v>848486</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7999,7 +8068,7 @@
         <v>1554</v>
       </c>
       <c r="N24" s="7">
-        <v>1429334</v>
+        <v>1471075</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8022,46 +8091,46 @@
         <v>172</v>
       </c>
       <c r="D25" s="7">
-        <v>140446</v>
+        <v>120080</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>584</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>569</v>
+        <v>585</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7">
         <v>268</v>
       </c>
       <c r="I25" s="7">
-        <v>187103</v>
+        <v>156549</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>494</v>
+        <v>587</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>571</v>
+        <v>588</v>
       </c>
       <c r="M25" s="7">
         <v>440</v>
       </c>
       <c r="N25" s="7">
-        <v>327549</v>
+        <v>276629</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>572</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,46 +8142,46 @@
         <v>590</v>
       </c>
       <c r="D26" s="7">
-        <v>718982</v>
+        <v>808640</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>591</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="H26" s="7">
         <v>793</v>
       </c>
       <c r="I26" s="7">
-        <v>678569</v>
+        <v>558843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>502</v>
+        <v>595</v>
       </c>
       <c r="M26" s="7">
         <v>1383</v>
       </c>
       <c r="N26" s="7">
-        <v>1397551</v>
+        <v>1367483</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>578</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,7 +8193,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8139,7 +8208,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8154,7 +8223,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8177,46 +8246,46 @@
         <v>864</v>
       </c>
       <c r="D28" s="7">
-        <v>660526</v>
+        <v>621253</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>581</v>
+        <v>598</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>582</v>
+        <v>494</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="H28" s="7">
         <v>1419</v>
       </c>
       <c r="I28" s="7">
-        <v>897259</v>
+        <v>919978</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>230</v>
+        <v>601</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="M28" s="7">
         <v>2283</v>
       </c>
       <c r="N28" s="7">
-        <v>1557786</v>
+        <v>1541231</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>586</v>
+        <v>603</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>587</v>
+        <v>604</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>588</v>
+        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,46 +8297,46 @@
         <v>2506</v>
       </c>
       <c r="D29" s="7">
-        <v>2720215</v>
+        <v>2834312</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>591</v>
+        <v>504</v>
       </c>
       <c r="H29" s="7">
         <v>3935</v>
       </c>
       <c r="I29" s="7">
-        <v>2902955</v>
+        <v>2735218</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>238</v>
+        <v>610</v>
       </c>
       <c r="M29" s="7">
         <v>6441</v>
       </c>
       <c r="N29" s="7">
-        <v>5623170</v>
+        <v>5569530</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,7 +8348,7 @@
         <v>3370</v>
       </c>
       <c r="D30" s="7">
-        <v>3380741</v>
+        <v>3455565</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8294,7 +8363,7 @@
         <v>5354</v>
       </c>
       <c r="I30" s="7">
-        <v>3800214</v>
+        <v>3655196</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8309,7 +8378,7 @@
         <v>8724</v>
       </c>
       <c r="N30" s="7">
-        <v>7180956</v>
+        <v>7110761</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
